--- a/matched_reports.xlsx
+++ b/matched_reports.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,32 +453,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/automotive-wiring-harness-market</t>
+          <t>https://www.skyquestt.com/report/cell-culture-market</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SQMIG25A2164</t>
+          <t>SQMIG35H2257</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.skyquestt.com/report/cell-culture-market</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SQMIG35H2257</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>

--- a/matched_reports.xlsx
+++ b/matched_reports.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,21 +449,53 @@
           <t>Match Status</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Published Date</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cell-culture-market</t>
+          <t>https://www.skyquestt.com/report/application-container-market</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SQMIG35H2257</t>
+          <t>SQMIG45E2082</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Yes</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>November 9, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/application-container-market</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SQMIG45E2082</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>November 6, 2024</t>
         </is>
       </c>
     </row>

--- a/matched_reports.xlsx
+++ b/matched_reports.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,12 +458,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/application-container-market</t>
+          <t>https://www.skyquestt.com/report/recombinant-protein-market</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SQMIG45E2082</t>
+          <t>SQMIG35H2039</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +480,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/application-container-market</t>
+          <t>https://www.skyquestt.com/report/recombinant-protein-market</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SQMIG45E2082</t>
+          <t>SQMIG35H2039</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,7 +495,2251 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>November 6, 2024</t>
+          <t>July 12, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/bioreactors-market</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SQMIG35H2293</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>November 8, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/herbal-supplements-market</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SQMIG35I2351</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>November 14, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/fitness-tracker-market</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SQMIG35J2124</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>November 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/live-cell-imaging-market</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SQMIG35H2292</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>November 15, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/medical-equipment-maintenance-market</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SQMIG35D2261</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>November 12, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/livestock-monitoring-market</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SQMIG35G2298</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>November 10, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/radiofrequency-ablation-devices-market</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SQMIG35A2903</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>November 13, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/orphan-drug-market</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>SQMIG30A2005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>November 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/biochip-market</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SQMIG45A2235</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>November 9, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/insulin-market</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SQMIG35A2943</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>November 10, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/breathable-films-market</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SQMIG35A2942</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>November 10, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/medical-radiation-shielding-market</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SQMIG35H2295</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>November 12, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/auto-injector-market</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SQMIG35B2104</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>November 13, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/auto-injector-market</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SQMIG35B2104</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>October 15, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/veterinary-imaging-market</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SQMIG35G2299</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>November 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/stem-cell-banking-market</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SQMIG35H2294</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>November 12, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/botox-market</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SQMIG35H2296</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>November 13, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/process-analyzer-market</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>SQMIG35I2353</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>November 15, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/laboratory-information-system-market</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>SQMIG35C2028</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>November 14, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/scar-treatment-market</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SQMIG35A2949</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>November 14, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/body-composition-analyzers-market</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>SQMIG35A2946</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>November 9, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/healthcare-supply-chain-management-market</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SQMIG35D2272</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>November 8, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/physiotherapy-equipment-market</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SQMIG35A2945</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>November 9, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/radiation-oncology-market</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SQMIG35A2944</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>November 10, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/weight-management-market</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>SQMIG35A2948</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>November 15, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/healthcare-analytical-testing-services-market</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>SQMIG35D2273</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>November 9, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/breast-reconstruction-market</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SQMIG35A2947</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>November 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/gas-chromatography-market</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SQMIG35G2292</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>November 12, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/immunotherapy-drugs-market</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SQMIG35I2354</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>November 10, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/vitamin-d-testing-market</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SQMIG35B2215</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>November 13, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/protein-a-resin-market</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SQMIG35H2301</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>November 10, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/cardiac-biomarkers-market</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SQMIG35A2951</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>November 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/healthcare-packaging-market</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SQMIG15H2069</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>November 12, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/human-microbiome-market</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SQMIG35H2299</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>November 15, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/car-t-cell-therapy-market</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SQMIG35H2300</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>November 14, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/cell-and-gene-therapy-market</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SQMIG35G2300</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>November 13, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/gas-meter-market</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SQMIG25G2014</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>November 9, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/cell-isolation-market</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SQMIG35H2298</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>November 9, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/bone-graft-substitutes-market</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>SQMIG35A2257</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>November 10, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/bone-graft-substitutes-market</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>SQMIG35A2257</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>February 6, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/metaverse-in-healthcare-market</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SQMIG35H2297</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>November 15, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/vitamin-k2-market</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SQMIG35I2355</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>November 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/hemodialysis-and-peritoneal-dialysis-market</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>SQMIG35D2277</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>November 10, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/patient-monitoring-devices-market</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SQMIG35A2950</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>November 12, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/disposable-incontinence-products-market</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SQMIG35B2216</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>November 13, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/wearable-patch-market</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>SQMIG35H2304</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>November 12, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/hearing-amplifiers-market</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>SQMIG35A2956</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>November 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/inhalation-anesthesia-market</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SQMIG35B2217</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>November 8, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/biopsy-devices-market</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>SQMIG35A2955</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>November 13, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/proton-pump-inhibitors-market</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>SQMIG35B2218</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>November 9, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/healthcare-interoperability-solutions-market</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>SQMIG35D2275</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>November 14, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/optical-imaging-market</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>SQMIG35A2954</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>November 15, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/atherectomy-devices-market</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>SQMIG35A2953</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>November 9, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/artificial-organs-market</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>SQMIG35H2303</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>November 14, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/breast-imaging-market</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>SQMIG35A2952</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>November 10, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/cancer-monoclonal-antibodies-market</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>SQMIG35H2308</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>November 12, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/life-science-tool-market</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>SQSG35J2006</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>November 10, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/life-science-tool-market</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>SQSG35J2006</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>April 19, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/transradial-access-devices-market</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>SQMIG35H2302</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>November 15, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/positron-emission-tomography-market</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>SQMIG35D2276</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>November 9, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/medical-terminology-software-market</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>SQMIG35J2125</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>November 9, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/antifungal-drugs-market</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>SQMIG35I2358</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>November 13, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/e-prescribing-market</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>SQMIG35F2016</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>November 14, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/age-related-macular-degeneration-market</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>SQMIG35I2357</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>November 9, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/probiotic-ingredients-market</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>SQMIG35H2306</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>November 15, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/cell-counting-market</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>SQMIG35H2305</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>November 10, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/bronchoscopes-market</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>SQMIG35A2957</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>November 12, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/phototherapy-equipment-market</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>SQMIG35A2926</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>November 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/anti-acne-cosmetics-market</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>SQMIG30L2256</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>November 10, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/bioremediation-market</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>SQMIG20L2052</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>November 13, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/urinary-drainage-bags-market</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>SQMIG35H2310</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>November 13, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/small-molecule-api-market</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>SQMIG35I2356</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>November 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/clinical-trial-imaging-market</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>SQMIG35H2309</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>November 14, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/pharmaceutical-contract-packaging-market</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>SQMIG35H2311</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>November 12, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/veterinary-artificial-insemination-market</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>SQMIG35A2962</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>November 15, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/artificial-insemination-market</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>SQMIG35A2961</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>November 9, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/blood-culture-tests-market</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>SQMIG35D2281</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>November 8, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/photoacoustic-imaging-market</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>SQMIG35A2960</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>November 15, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/peptide-synthesis-market</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>SQMIG35H2313</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>November 9, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/behavioral-rehabilitation-market</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>SQMIG35D2280</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>November 8, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/cancer-registry-software-market</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>SQMIG35G2301</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>November 9, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/migraine-drugs-market</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>SQMIG35I2350</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>November 14, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/nuclear-imaging-equipment-market</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>SQMIG35A2959</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>November 10, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/pyrogen-testing-market</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>SQMIG35D2279</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>November 15, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/rosacea-treatment-market</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>SQMIG30L2257</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>November 9, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/medical-document-management-systems-market</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>SQMIG35D2278</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>November 12, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/chronic-wound-care-market</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>SQMIG35H2312</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>November 13, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/agricultural-biotechnology-market</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>SQMIG20L2053</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>November 10, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/cosmetic-implants-market</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>SQMIG35A2958</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>November 14, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/newborn-screening-market</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>SQMIG35E2050</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>November 15, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/surgical-stapling-devices-market</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>SQMIG35A2964</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>November 9, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/cell-viability-assays-market</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>SQMIG35H2315</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>November 15, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/dentures-market</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>SQMIG35A2963</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>November 9, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/surgical-retractors-market</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>SQMIG35G2303</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>November 10, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/pharmacovigilance-and-drug-safety-software-market</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>SQMIG35G2302</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>November 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/gene-panel-market</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>SQMIG35H2314</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>November 12, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/vital-signs-monitoring-devices-market</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>SQMIG35A2912</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>November 9, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/biological-safety-cabinet-market</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>SQMIG35J2119</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>November 10, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/cleanroom-consumables-market</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>SQMIG35A2911</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>November 15, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/light-therapy-market</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>SQMIG35J2120</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>November 11, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/antibody-drug-conjugates-market</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>SQMIG35I2342</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>November 12, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/personalized-medicines-market</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>SQMIG35H2307</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>November 9, 2024</t>
         </is>
       </c>
     </row>

--- a/matched_reports.xlsx
+++ b/matched_reports.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:D152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,12 +458,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/recombinant-protein-market</t>
+          <t>https://www.skyquestt.com/report/cloud-storage-market</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SQMIG35H2039</t>
+          <t>SQMIG45F2073</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -473,19 +473,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>November 9, 2024</t>
+          <t>November 21, 2024</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/recombinant-protein-market</t>
+          <t>https://www.skyquestt.com/report/military-robots-market</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SQMIG35H2039</t>
+          <t>SQMIG45I2159</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,19 +495,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>July 12, 2023</t>
+          <t>November 18, 2024</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/bioreactors-market</t>
+          <t>https://www.skyquestt.com/report/smart-home-market</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SQMIG35H2293</t>
+          <t>SQMIG45I2100</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -517,63 +517,55 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>November 8, 2024</t>
+          <t>November 19, 2024</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/herbal-supplements-market</t>
+          <t>https://www.skyquestt.com/report/wearable-medical-devices-market</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SQMIG35I2351</t>
+          <t>SQMIG35A2674</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>November 14, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/fitness-tracker-market</t>
+          <t>https://www.skyquestt.com/report/mobile-robots-market</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SQMIG35J2124</t>
+          <t>SQMIG25A2296</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>November 11, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/live-cell-imaging-market</t>
+          <t>https://www.skyquestt.com/report/cloud-analytics-market</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SQMIG35H2292</t>
+          <t>SQMIG45B2044</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -583,19 +575,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>November 15, 2024</t>
+          <t>November 17, 2024</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/medical-equipment-maintenance-market</t>
+          <t>https://www.skyquestt.com/report/telecom-service-assurance-market</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SQMIG35D2261</t>
+          <t>SQMIG45J2078</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -605,19 +597,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>November 12, 2024</t>
+          <t>November 19, 2024</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/livestock-monitoring-market</t>
+          <t>https://www.skyquestt.com/report/gas-insulated-transformer-market</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SQMIG35G2298</t>
+          <t>SQMIG45K2107</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -627,19 +619,19 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>November 10, 2024</t>
+          <t>November 20, 2024</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/radiofrequency-ablation-devices-market</t>
+          <t>https://www.skyquestt.com/report/bioprocess-validation-market</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SQMIG35A2903</t>
+          <t>SQMIG35H2319</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -649,19 +641,19 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>November 13, 2024</t>
+          <t>November 16, 2024</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/orphan-drug-market</t>
+          <t>https://www.skyquestt.com/report/autonomous-vehicles-market</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SQMIG30A2005</t>
+          <t>SQMIG25C2055</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -671,19 +663,19 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>November 11, 2024</t>
+          <t>October 10, 2024</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/biochip-market</t>
+          <t>https://www.skyquestt.com/report/intravenous-solutions-market</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SQMIG45A2235</t>
+          <t>SQMIG35E2051</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -693,19 +685,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>November 9, 2024</t>
+          <t>November 18, 2024</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/insulin-market</t>
+          <t>https://www.skyquestt.com/report/spectrometry-market</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SQMIG35A2943</t>
+          <t>SQMIG35J2126</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -715,19 +707,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>November 10, 2024</t>
+          <t>November 21, 2024</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/breathable-films-market</t>
+          <t>https://www.skyquestt.com/report/pupillometer-market</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SQMIG35A2942</t>
+          <t>SQMIG35A2968</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -737,19 +729,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>November 10, 2024</t>
+          <t>November 17, 2024</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/medical-radiation-shielding-market</t>
+          <t>https://www.skyquestt.com/report/industrial-internet-of-things-iiot-market</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SQMIG35H2295</t>
+          <t>SQMIG45A2329</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -759,19 +751,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>November 12, 2024</t>
+          <t>October 12, 2024</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/auto-injector-market</t>
+          <t>https://www.skyquestt.com/report/microcatheters-market</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SQMIG35B2104</t>
+          <t>SQMIG35A2967</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -781,19 +773,19 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>November 13, 2024</t>
+          <t>November 19, 2024</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/auto-injector-market</t>
+          <t>https://www.skyquestt.com/report/concierge-medicine-market</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SQMIG35B2104</t>
+          <t>SQMIG35H2318</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -803,19 +795,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>October 15, 2023</t>
+          <t>November 17, 2024</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/veterinary-imaging-market</t>
+          <t>https://www.skyquestt.com/report/cell-analysis-market</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SQMIG35G2299</t>
+          <t>SQMIG35H2316</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -825,19 +817,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>November 11, 2024</t>
+          <t>November 19, 2024</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/stem-cell-banking-market</t>
+          <t>https://www.skyquestt.com/report/ivd-contract-manufacturing-market</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SQMIG35H2294</t>
+          <t>SQMIG35H2317</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -847,19 +839,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>November 12, 2024</t>
+          <t>November 18, 2024</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/botox-market</t>
+          <t>https://www.skyquestt.com/report/ventricular-assist-devices-market</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SQMIG35H2296</t>
+          <t>SQMIG35A2966</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -869,19 +861,19 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>November 13, 2024</t>
+          <t>November 20, 2024</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/process-analyzer-market</t>
+          <t>https://www.skyquestt.com/report/cementless-total-knee-arthroplasty-market</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SQMIG35I2353</t>
+          <t>SQMIG35A2965</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -891,19 +883,19 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>November 15, 2024</t>
+          <t>November 22, 2024</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/laboratory-information-system-market</t>
+          <t>https://www.skyquestt.com/report/green-technology-and-sustainability-market</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SQMIG35C2028</t>
+          <t>SQMIG45B2034</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -913,19 +905,19 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>November 14, 2024</t>
+          <t>November 22, 2024</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/scar-treatment-market</t>
+          <t>https://www.skyquestt.com/report/medical-specialty-bags-market</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SQMIG35A2949</t>
+          <t>SQMIG35B2219</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -935,19 +927,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>November 14, 2024</t>
+          <t>November 21, 2024</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/body-composition-analyzers-market</t>
+          <t>https://www.skyquestt.com/report/ultrasound-equipment-market</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SQMIG35A2946</t>
+          <t>SQMIG35A2969</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -957,19 +949,19 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>November 9, 2024</t>
+          <t>November 20, 2024</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/healthcare-supply-chain-management-market</t>
+          <t>https://www.skyquestt.com/report/infection-surveillance-solutions-market</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SQMIG35D2272</t>
+          <t>SQMIG35G2304</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -979,19 +971,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>November 8, 2024</t>
+          <t>November 19, 2024</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/physiotherapy-equipment-market</t>
+          <t>https://www.skyquestt.com/report/legionella-testing-market</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SQMIG35A2945</t>
+          <t>SQMIG35D2264</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1001,19 +993,19 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>November 9, 2024</t>
+          <t>November 22, 2024</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/radiation-oncology-market</t>
+          <t>https://www.skyquestt.com/report/medical-foods-market</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SQMIG35A2944</t>
+          <t>SQMIG35I2345</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1023,19 +1015,19 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>November 10, 2024</t>
+          <t>November 18, 2024</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/weight-management-market</t>
+          <t>https://www.skyquestt.com/report/drug-delivery-devices-market</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SQMIG35A2948</t>
+          <t>SQMIG35A2918</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1045,19 +1037,19 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>November 15, 2024</t>
+          <t>November 20, 2024</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/healthcare-analytical-testing-services-market</t>
+          <t>https://www.skyquestt.com/report/nutrigenomics-market</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SQMIG35D2273</t>
+          <t>SQMIG35H2266</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1067,19 +1059,19 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>November 9, 2024</t>
+          <t>November 17, 2024</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/breast-reconstruction-market</t>
+          <t>https://www.skyquestt.com/report/automotive-wrap-films-market</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SQMIG35A2947</t>
+          <t>SQMIG25A2323</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1089,19 +1081,19 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>November 11, 2024</t>
+          <t>November 19, 2024</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/gas-chromatography-market</t>
+          <t>https://www.skyquestt.com/report/evtol-aircraft-market</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SQMIG35G2292</t>
+          <t>SQMIG20A2275</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1111,19 +1103,19 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>November 12, 2024</t>
+          <t>November 18, 2024</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/immunotherapy-drugs-market</t>
+          <t>https://www.skyquestt.com/report/isostatic-pressing-market</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SQMIG35I2354</t>
+          <t>SQMIG20A2266</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1133,19 +1125,19 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>November 10, 2024</t>
+          <t>November 20, 2024</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/vitamin-d-testing-market</t>
+          <t>https://www.skyquestt.com/report/air-freshener-market</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SQMIG35B2215</t>
+          <t>SQMIG25Z2015</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1155,19 +1147,19 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>November 13, 2024</t>
+          <t>November 21, 2024</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/protein-a-resin-market</t>
+          <t>https://www.skyquestt.com/report/satellite-internet-market</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SQMIG35H2301</t>
+          <t>SQMIG45B2158</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1177,19 +1169,19 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>November 10, 2024</t>
+          <t>November 18, 2024</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cardiac-biomarkers-market</t>
+          <t>https://www.skyquestt.com/report/thermoplastic-composites-market</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SQMIG35A2951</t>
+          <t>SQMIG15E2548</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1199,19 +1191,19 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>November 11, 2024</t>
+          <t>November 16, 2024</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/healthcare-packaging-market</t>
+          <t>https://www.skyquestt.com/report/nitrocellulose-market</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SQMIG15H2069</t>
+          <t>SQMIG15E2549</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1221,19 +1213,19 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>November 12, 2024</t>
+          <t>November 17, 2024</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/human-microbiome-market</t>
+          <t>https://www.skyquestt.com/report/web-analytics-market</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SQMIG35H2299</t>
+          <t>SQMIG45B2157</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1243,19 +1235,19 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>November 15, 2024</t>
+          <t>November 19, 2024</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/car-t-cell-therapy-market</t>
+          <t>https://www.skyquestt.com/report/esterquats-market</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SQMIG35H2300</t>
+          <t>SQSG15A2024</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1265,19 +1257,19 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>November 14, 2024</t>
+          <t>November 21, 2024</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cell-and-gene-therapy-market</t>
+          <t>https://www.skyquestt.com/report/low-speed-electric-vehicle-market</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SQMIG35G2300</t>
+          <t>SQMIG10A2046</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1287,19 +1279,19 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>November 13, 2024</t>
+          <t>November 20, 2024</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/gas-meter-market</t>
+          <t>https://www.skyquestt.com/report/commercial-telematics-market</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SQMIG25G2014</t>
+          <t>SQMIG45E2269</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1309,19 +1301,19 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>November 9, 2024</t>
+          <t>November 22, 2024</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cell-isolation-market</t>
+          <t>https://www.skyquestt.com/report/smart-waste-management-market</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SQMIG35H2298</t>
+          <t>SQMIG45E2268</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1331,19 +1323,19 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>November 9, 2024</t>
+          <t>November 17, 2024</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/bone-graft-substitutes-market</t>
+          <t>https://www.skyquestt.com/report/pay-tv-market</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SQMIG35A2257</t>
+          <t>SQMIG45I2219</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1353,19 +1345,19 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>November 10, 2024</t>
+          <t>November 18, 2024</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/bone-graft-substitutes-market</t>
+          <t>https://www.skyquestt.com/report/smart-fleet-management-market</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SQMIG35A2257</t>
+          <t>SQMIG45E2267</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1375,19 +1367,19 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>February 6, 2024</t>
+          <t>November 19, 2024</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/metaverse-in-healthcare-market</t>
+          <t>https://www.skyquestt.com/report/smart-parking-market</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SQMIG35H2297</t>
+          <t>SQMIG45M2018</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1397,19 +1389,19 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>November 15, 2024</t>
+          <t>November 20, 2024</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/vitamin-k2-market</t>
+          <t>https://www.skyquestt.com/report/chatbot-market</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SQMIG35I2355</t>
+          <t>SQMIG45A2039</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1419,19 +1411,19 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>November 11, 2024</t>
+          <t>November 18, 2024</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/hemodialysis-and-peritoneal-dialysis-market</t>
+          <t>https://www.skyquestt.com/report/car-rental-market</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SQMIG35D2277</t>
+          <t>SQMIG25AG2009</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1441,19 +1433,19 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>November 10, 2024</t>
+          <t>November 19, 2024</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/patient-monitoring-devices-market</t>
+          <t>https://www.skyquestt.com/report/biochar-market</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SQMIG35A2950</t>
+          <t>SQMIG15C2016</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1463,19 +1455,19 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>November 12, 2024</t>
+          <t>November 20, 2024</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/disposable-incontinence-products-market</t>
+          <t>https://www.skyquestt.com/report/customer-experience-management-market</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SQMIG35B2216</t>
+          <t>SQMIG20Q2006</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1485,19 +1477,19 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>November 13, 2024</t>
+          <t>November 22, 2024</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/wearable-patch-market</t>
+          <t>https://www.skyquestt.com/report/activated-carbon-market</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SQMIG35H2304</t>
+          <t>SQMIG15B2101</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1507,41 +1499,37 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>November 12, 2024</t>
+          <t>November 17, 2024</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/hearing-amplifiers-market</t>
+          <t>https://www.skyquestt.com/report/cannabidiol-market</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SQMIG35A2956</t>
+          <t>SQMIG35I2339</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>November 11, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/inhalation-anesthesia-market</t>
+          <t>https://www.skyquestt.com/report/carbon-credits-market</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SQMIG35B2217</t>
+          <t>SQMIG25E2111</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1551,19 +1539,19 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>November 8, 2024</t>
+          <t>November 21, 2024</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/biopsy-devices-market</t>
+          <t>https://www.skyquestt.com/report/heat-pump-market</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SQMIG35A2955</t>
+          <t>SQMIG10B2075</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1573,19 +1561,19 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>November 13, 2024</t>
+          <t>November 19, 2024</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/proton-pump-inhibitors-market</t>
+          <t>https://www.skyquestt.com/report/kombucha-market</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SQMIG35B2218</t>
+          <t>SQMIG30F2020</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1595,19 +1583,19 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>November 9, 2024</t>
+          <t>November 18, 2024</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/healthcare-interoperability-solutions-market</t>
+          <t>https://www.skyquestt.com/report/identity-verification-market</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SQMIG35D2275</t>
+          <t>SQMIG45B2134</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1617,19 +1605,19 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>November 14, 2024</t>
+          <t>November 20, 2024</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/optical-imaging-market</t>
+          <t>https://www.skyquestt.com/report/cold-chain-market</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SQMIG35A2954</t>
+          <t>SQMIG25C2104</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1639,19 +1627,19 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>November 15, 2024</t>
+          <t>November 21, 2024</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/atherectomy-devices-market</t>
+          <t>https://www.skyquestt.com/report/e-bike-market</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SQMIG35A2953</t>
+          <t>SQMIG25C2047</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1661,19 +1649,19 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>November 9, 2024</t>
+          <t>November 16, 2024</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/artificial-organs-market</t>
+          <t>https://www.skyquestt.com/report/smart-speaker-market</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SQMIG35H2303</t>
+          <t>SQMIG25E2084</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1683,19 +1671,19 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>November 14, 2024</t>
+          <t>November 22, 2024</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/breast-imaging-market</t>
+          <t>https://www.skyquestt.com/report/enzymes-market</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SQMIG35A2952</t>
+          <t>SQSG30I2034</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1705,19 +1693,19 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>November 10, 2024</t>
+          <t>November 17, 2024</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cancer-monoclonal-antibodies-market</t>
+          <t>https://www.skyquestt.com/report/aquaculture-market</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SQMIG35H2308</t>
+          <t>SQMIG30H2089</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1727,19 +1715,19 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>November 12, 2024</t>
+          <t>November 18, 2024</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/life-science-tool-market</t>
+          <t>https://www.skyquestt.com/report/industrial-gases-market</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SQSG35J2006</t>
+          <t>SQMIG10B2039</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1749,19 +1737,19 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>November 10, 2024</t>
+          <t>November 17, 2024</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/life-science-tool-market</t>
+          <t>https://www.skyquestt.com/report/lithium-ion-battery-market</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SQSG35J2006</t>
+          <t>SQMIG20D2153</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1771,19 +1759,19 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>April 19, 2023</t>
+          <t>November 20, 2024</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/transradial-access-devices-market</t>
+          <t>https://www.skyquestt.com/report/loyalty-management-market</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SQMIG35H2302</t>
+          <t>SQMIG45B2159</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1793,19 +1781,19 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>November 15, 2024</t>
+          <t>November 19, 2024</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/positron-emission-tomography-market</t>
+          <t>https://www.skyquestt.com/report/bioethanol-market</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SQMIG35D2276</t>
+          <t>SQMIG10D2044</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1815,19 +1803,19 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>November 9, 2024</t>
+          <t>November 20, 2024</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/medical-terminology-software-market</t>
+          <t>https://www.skyquestt.com/report/extended-reality-market</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SQMIG35J2125</t>
+          <t>SQMIG45E2161</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1837,19 +1825,19 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>November 9, 2024</t>
+          <t>November 18, 2024</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/antifungal-drugs-market</t>
+          <t>https://www.skyquestt.com/report/portable-generator-market</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SQMIG35I2358</t>
+          <t>SQMIG20E2066</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1859,19 +1847,19 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>November 13, 2024</t>
+          <t>November 19, 2024</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/e-prescribing-market</t>
+          <t>https://www.skyquestt.com/report/cosmetic-packaging-market</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SQMIG35F2016</t>
+          <t>SQMIG30L2113</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1881,19 +1869,19 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>November 14, 2024</t>
+          <t>November 19, 2024</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/age-related-macular-degeneration-market</t>
+          <t>https://www.skyquestt.com/report/gas-turbine-market</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SQMIG35I2357</t>
+          <t>SQMIG55B2003</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1903,19 +1891,19 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>November 9, 2024</t>
+          <t>November 18, 2024</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/probiotic-ingredients-market</t>
+          <t>https://www.skyquestt.com/report/industrial-filtration-market</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SQMIG35H2306</t>
+          <t>SQMIG20I2154</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1925,19 +1913,19 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>November 15, 2024</t>
+          <t>November 17, 2024</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cell-counting-market</t>
+          <t>https://www.skyquestt.com/report/dimethyl-ether-market</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SQMIG35H2305</t>
+          <t>SQMIG15E2344</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1947,19 +1935,19 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>November 10, 2024</t>
+          <t>November 18, 2024</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/bronchoscopes-market</t>
+          <t>https://www.skyquestt.com/report/polycarbonate-market</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SQMIG35A2957</t>
+          <t>SQMIG15E2343</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1969,19 +1957,19 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>November 12, 2024</t>
+          <t>November 19, 2024</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/phototherapy-equipment-market</t>
+          <t>https://www.skyquestt.com/report/recreational-vehicle-market</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SQMIG35A2926</t>
+          <t>SQMIG20I2209</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1991,19 +1979,19 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>November 11, 2024</t>
+          <t>November 20, 2024</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/anti-acne-cosmetics-market</t>
+          <t>https://www.skyquestt.com/report/3d-printer-market</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SQMIG30L2256</t>
+          <t>SQMIG45J2073</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2013,19 +2001,19 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>November 10, 2024</t>
+          <t>November 22, 2024</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/bioremediation-market</t>
+          <t>https://www.skyquestt.com/report/epoxy-resin-market</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SQMIG20L2052</t>
+          <t>SQSG15A2048</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2035,19 +2023,19 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>November 13, 2024</t>
+          <t>November 20, 2024</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/urinary-drainage-bags-market</t>
+          <t>https://www.skyquestt.com/report/semiconductor-production-equipment-market</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SQMIG35H2310</t>
+          <t>SQMIG45N2084</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2057,19 +2045,19 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>November 13, 2024</t>
+          <t>November 21, 2024</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/small-molecule-api-market</t>
+          <t>https://www.skyquestt.com/report/semiconductor-production-equipment-market</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SQMIG35I2356</t>
+          <t>SQMIG45N2084</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2079,19 +2067,19 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>November 11, 2024</t>
+          <t>July 27, 2024</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/clinical-trial-imaging-market</t>
+          <t>https://www.skyquestt.com/report/masterbatch-market</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>SQMIG35H2309</t>
+          <t>SQMIG15E2169</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2101,19 +2089,19 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>November 14, 2024</t>
+          <t>November 21, 2024</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/pharmaceutical-contract-packaging-market</t>
+          <t>https://www.skyquestt.com/report/crop-protection-chemicals-market</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SQMIG35H2311</t>
+          <t>SQMIG15C2035</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2123,19 +2111,19 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>November 12, 2024</t>
+          <t>November 17, 2024</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/veterinary-artificial-insemination-market</t>
+          <t>https://www.skyquestt.com/report/industrial-hemp-market</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SQMIG35A2962</t>
+          <t>SQMIG15P2005</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2145,19 +2133,19 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>November 15, 2024</t>
+          <t>November 16, 2024</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/artificial-insemination-market</t>
+          <t>https://www.skyquestt.com/report/asset-performance-management-market</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SQMIG35A2961</t>
+          <t>SQMIG40J2004</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2167,19 +2155,19 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>November 9, 2024</t>
+          <t>November 19, 2024</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/blood-culture-tests-market</t>
+          <t>https://www.skyquestt.com/report/payment-processing-solutions-market</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SQMIG35D2281</t>
+          <t>SQMIG40J2005</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2189,19 +2177,19 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>November 8, 2024</t>
+          <t>November 20, 2024</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/photoacoustic-imaging-market</t>
+          <t>https://www.skyquestt.com/report/flow-battery-market</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SQMIG35A2960</t>
+          <t>SQMIG55F2057</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2211,19 +2199,19 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>November 15, 2024</t>
+          <t>November 18, 2024</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/peptide-synthesis-market</t>
+          <t>https://www.skyquestt.com/report/commercial-vehicle-market</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>SQMIG35H2313</t>
+          <t>SQMIG20V2002</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2233,19 +2221,19 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>November 9, 2024</t>
+          <t>November 22, 2024</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/behavioral-rehabilitation-market</t>
+          <t>https://www.skyquestt.com/report/high-performance-computing-market</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>SQMIG35D2280</t>
+          <t>SQMIG45B2029</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2255,19 +2243,19 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>November 8, 2024</t>
+          <t>November 21, 2024</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cancer-registry-software-market</t>
+          <t>https://www.skyquestt.com/report/forklift-market</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>SQMIG35G2301</t>
+          <t>SQMIG20G2021</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2277,19 +2265,19 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>November 9, 2024</t>
+          <t>November 17, 2024</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/migraine-drugs-market</t>
+          <t>https://www.skyquestt.com/report/digital-map-market</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SQMIG35I2350</t>
+          <t>SQMIG45B2136</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2299,19 +2287,19 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>November 14, 2024</t>
+          <t>November 18, 2024</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/nuclear-imaging-equipment-market</t>
+          <t>https://www.skyquestt.com/report/space-tourism-market</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SQMIG35A2959</t>
+          <t>SQMIG20S2010</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2321,19 +2309,19 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>November 10, 2024</t>
+          <t>November 20, 2024</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/pyrogen-testing-market</t>
+          <t>https://www.skyquestt.com/report/blockchain-gaming-market</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SQMIG35D2279</t>
+          <t>SQMIG45E2251</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2343,19 +2331,19 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>November 15, 2024</t>
+          <t>November 19, 2024</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/rosacea-treatment-market</t>
+          <t>https://www.skyquestt.com/report/sulfuric-acid-market</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SQMIG30L2257</t>
+          <t>SQMIG15A2309</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2365,19 +2353,19 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>November 9, 2024</t>
+          <t>November 18, 2024</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/medical-document-management-systems-market</t>
+          <t>https://www.skyquestt.com/report/insect-protein-market</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SQMIG35D2278</t>
+          <t>SQSG30I2040</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2387,19 +2375,19 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>November 12, 2024</t>
+          <t>November 19, 2024</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/chronic-wound-care-market</t>
+          <t>https://www.skyquestt.com/report/catalyst-market</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SQMIG35H2312</t>
+          <t>SQMIG15E2342</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2409,19 +2397,19 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>November 13, 2024</t>
+          <t>November 20, 2024</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/agricultural-biotechnology-market</t>
+          <t>https://www.skyquestt.com/report/clinical-nutrition-market</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SQMIG20L2053</t>
+          <t>SQMIG30A2012</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2431,19 +2419,19 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>November 10, 2024</t>
+          <t>November 21, 2024</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cosmetic-implants-market</t>
+          <t>https://www.skyquestt.com/report/hydrogen-storage-market</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SQMIG35A2958</t>
+          <t>SQMIG55B2005</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2453,19 +2441,19 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>November 14, 2024</t>
+          <t>November 16, 2024</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/newborn-screening-market</t>
+          <t>https://www.skyquestt.com/report/high-purity-alumina-market</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SQMIG35E2050</t>
+          <t>SQMIG15E2303</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2475,19 +2463,19 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>November 15, 2024</t>
+          <t>November 17, 2024</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/surgical-stapling-devices-market</t>
+          <t>https://www.skyquestt.com/report/commercial-drone-market</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SQMIG35A2964</t>
+          <t>SQMIG20A2044</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2497,19 +2485,19 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>November 9, 2024</t>
+          <t>November 18, 2024</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cell-viability-assays-market</t>
+          <t>https://www.skyquestt.com/report/payment-gateway-market</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SQMIG35H2315</t>
+          <t>SQSG45E2040</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2519,19 +2507,19 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>November 15, 2024</t>
+          <t>November 19, 2024</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/dentures-market</t>
+          <t>https://www.skyquestt.com/report/smart-warehousing-market</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SQMIG35A2963</t>
+          <t>SQMIG45D2053</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2541,19 +2529,19 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>November 9, 2024</t>
+          <t>November 20, 2024</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/surgical-retractors-market</t>
+          <t>https://www.skyquestt.com/report/flow-meter-market</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SQMIG35G2303</t>
+          <t>SQMIG20D2184</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2563,19 +2551,19 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>November 10, 2024</t>
+          <t>November 17, 2024</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/pharmacovigilance-and-drug-safety-software-market</t>
+          <t>https://www.skyquestt.com/report/air-compressor-market</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SQMIG35G2302</t>
+          <t>SQSG20I2028</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2585,19 +2573,19 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>November 11, 2024</t>
+          <t>November 22, 2024</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/gene-panel-market</t>
+          <t>https://www.skyquestt.com/report/fog-computing-market</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>SQMIG35H2314</t>
+          <t>SQMIG45F2040</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2607,19 +2595,19 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>November 12, 2024</t>
+          <t>November 21, 2024</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/vital-signs-monitoring-devices-market</t>
+          <t>https://www.skyquestt.com/report/lab-automation-market</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SQMIG35A2912</t>
+          <t>SQMIG20D2061</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2629,19 +2617,19 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>November 9, 2024</t>
+          <t>November 18, 2024</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/biological-safety-cabinet-market</t>
+          <t>https://www.skyquestt.com/report/aircraft-engine-market</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SQMIG35J2119</t>
+          <t>SQMIG20S2011</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2651,19 +2639,19 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>November 10, 2024</t>
+          <t>November 20, 2024</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cleanroom-consumables-market</t>
+          <t>https://www.skyquestt.com/report/rehabilitation-robots-market</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SQMIG35A2911</t>
+          <t>SQMIG45A2373</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2673,19 +2661,19 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>November 15, 2024</t>
+          <t>November 19, 2024</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/light-therapy-market</t>
+          <t>https://www.skyquestt.com/report/plastic-processing-machinery-market</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>SQMIG35J2120</t>
+          <t>SQMIG20I2184</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2695,19 +2683,19 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>November 11, 2024</t>
+          <t>November 19, 2024</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/antibody-drug-conjugates-market</t>
+          <t>https://www.skyquestt.com/report/virtual-reality-in-gaming-market</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SQMIG35I2342</t>
+          <t>SQMIG45D2048</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2717,19 +2705,19 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>November 12, 2024</t>
+          <t>November 18, 2024</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/personalized-medicines-market</t>
+          <t>https://www.skyquestt.com/report/industrial-hose-market</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SQMIG35H2307</t>
+          <t>SQMIG20B2069</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2739,7 +2727,1041 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>November 9, 2024</t>
+          <t>November 20, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/hyperspectral-imaging-market</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>SQMIG45J2128</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>November 18, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/smart-greenhouse-market</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>SQMIG20H2008</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>November 21, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/robotic-lawn-mower-market</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>SQSG20H2001</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>November 22, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/agricultural-surfactants-market</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>SQMIG15C2072</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>November 21, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/functional-water-market</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>SQMIG30F2036</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>November 18, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/polymer-foam-market</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>SQMIG15E2539</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>November 20, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/electronic-chemicals-and-materials-market</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>SQMIG15E2339</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>November 19, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/infant-nutrition-market</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>SQSG30I2042</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>November 19, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/secondary-battery-market</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>SQMIG20D2229</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>November 17, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/base-oil-market</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>SQMIG55B2009</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>November 16, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/open-banking-market</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>SQMIG40A2004</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>November 17, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/essential-oils-market</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>SQMIG30L2140</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>November 18, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/battery-energy-storage-system-market</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>SQMIG55C2005</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>November 19, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/blue-hydrogen-market</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>SQMIG10D2019</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>November 20, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/organic-baby-food-market</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>SQMIG30I2146</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>November 21, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/smart-bed-market</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>SQMIG25F2064</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>November 18, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/release-liners-market</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>SQMIG15A2360</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>November 19, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/industrial-wax-market</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>SQMIG15A2410</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>November 21, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/pet-wearable-market</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>SQMIG25S2023</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>November 17, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/synthetic-gypsum-market</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>SQMIG15F2116</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>November 20, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/medical-polymers-market</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>SQMIG15A2347</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>November 18, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-ethernet-market</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>SQMIG25E2113</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>November 19, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/landfill-gas-market</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>SQMIG10C2020</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>November 22, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/torque-vectoring-market</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>SQMIG25E2112</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>November 20, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/lithium-ion-battery-recycling-market</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>SQMIG15A2413</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>November 16, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/heat-recovery-steam-generator-market</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>SQMIG20E2060</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>November 19, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/wire-harness-market</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>SQMIG20D2163</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>November 19, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/alkaline-battery-market</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>SQSG20D2008</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>November 18, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/image-sensor-market</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>SQMIG45J2154</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>November 17, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/battery-electrolyte-market</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>SQMIG20D2224</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>November 20, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/voice-assistant-application-market</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>SQMIG45E2270</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>November 18, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/commercial-hvac-market</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>SQMIG20D2234</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>November 22, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/drone-payload-market</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>SQMIG20D2258</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>November 17, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/secure-logistics-market</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>SQMIG20R2016</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>November 20, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/agriculture-analytics-market</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>SQMIG45F2070</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>November 19, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/busbar-market</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>SQMIG20D2189</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>November 22, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-airbag-market</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>SQSG25A2013</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>November 17, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/alcoholic-beverages-market</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>SQMIG30C2129</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>November 21, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/energy-management-system-market</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>SQMIG45F2071</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>November 20, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/polymer-modified-bitumen-market</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>SQMIG20C2068</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>November 19, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/hydraulic-fracturing-market</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>SQMIG20I2216</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>November 18, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/vegan-cosmetics-market</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>SQMIG30L2195</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>November 16, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/polyurethane-foam-market</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>SQMIG15B2118</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>November 18, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/smart-water-management-market</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>SQMIG55D2023</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>November 17, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/ceramics-market</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>SQMIG15F2099</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>November 19, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/train-battery-market</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>SQMIG20E2086</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>November 21, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/thermoelectric-generator-market</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>SQMIG20D2264</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>November 20, 2024</t>
         </is>
       </c>
     </row>

--- a/matched_reports.xlsx
+++ b/matched_reports.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,12 +458,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cloud-storage-market</t>
+          <t>https://www.skyquestt.com/report/aerostructure-market</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SQMIG45F2073</t>
+          <t>SQMIG20A2188</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -473,121 +473,117 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>November 21, 2024</t>
+          <t>November 24, 2024</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/military-robots-market</t>
+          <t>https://www.skyquestt.com/report/baking-ingredients-market</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SQMIG45I2159</t>
+          <t>SQMIG30C2040</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>November 18, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/smart-home-market</t>
+          <t>https://www.skyquestt.com/report/lubricant-additives-market</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SQMIG45I2100</t>
+          <t>SQMIG15A2313</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>November 19, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/wearable-medical-devices-market</t>
+          <t>https://www.skyquestt.com/report/agricultural-enzymes-market</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SQMIG35A2674</t>
+          <t>SQMIG15C2070</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>November 23, 2024</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/mobile-robots-market</t>
+          <t>https://www.skyquestt.com/report/food-container-market</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SQMIG25A2296</t>
+          <t>SQMIG15F2121</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>November 26, 2024</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cloud-analytics-market</t>
+          <t>https://www.skyquestt.com/report/aromatic-solvents-market</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SQMIG45B2044</t>
+          <t>SQMIG15E2133</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>November 17, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/telecom-service-assurance-market</t>
+          <t>https://www.skyquestt.com/report/refrigerators-market</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SQMIG45J2078</t>
+          <t>SQMIG25H2034</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -597,41 +593,37 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>November 19, 2024</t>
+          <t>November 25, 2024</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/gas-insulated-transformer-market</t>
+          <t>https://www.skyquestt.com/report/green-cement-market</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SQMIG45K2107</t>
+          <t>SQMIG15F2081</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>November 20, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/bioprocess-validation-market</t>
+          <t>https://www.skyquestt.com/report/bakery-products-market</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SQMIG35H2319</t>
+          <t>SQMIG25E2039</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -641,41 +633,37 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>November 16, 2024</t>
+          <t>November 25, 2024</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/autonomous-vehicles-market</t>
+          <t>https://www.skyquestt.com/report/waterborne-coatings-market</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SQMIG25C2055</t>
+          <t>SQMIG15E2123</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>October 10, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/intravenous-solutions-market</t>
+          <t>https://www.skyquestt.com/report/medical-polymers-market</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SQMIG35E2051</t>
+          <t>SQMIG15A2347</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -692,56 +680,48 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/spectrometry-market</t>
+          <t>https://www.skyquestt.com/report/waste-recycling-services-market</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SQMIG35J2126</t>
+          <t>SQMIG20L2042</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>November 21, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/pupillometer-market</t>
+          <t>https://www.skyquestt.com/report/air-insulated-switchgear-market</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SQMIG35A2968</t>
+          <t>SQMIG20D2257</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>November 17, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/industrial-internet-of-things-iiot-market</t>
+          <t>https://www.skyquestt.com/report/automotive-led-lighting-market</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SQMIG45A2329</t>
+          <t>SQMIG25A2184</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -751,19 +731,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>October 12, 2024</t>
+          <t>November 24, 2024</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/microcatheters-market</t>
+          <t>https://www.skyquestt.com/report/augmented-reality-in-retail-market</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SQMIG35A2967</t>
+          <t>SQMIG45E2243</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -773,19 +753,19 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>November 19, 2024</t>
+          <t>November 26, 2024</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/concierge-medicine-market</t>
+          <t>https://www.skyquestt.com/report/metering-pumps-market</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SQMIG35H2318</t>
+          <t>SQMIG20C2012</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -795,19 +775,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>November 17, 2024</t>
+          <t>November 23, 2024</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cell-analysis-market</t>
+          <t>https://www.skyquestt.com/report/mobile-crane-market</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SQMIG35H2316</t>
+          <t>SQSG25C2004</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -817,19 +797,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>November 19, 2024</t>
+          <t>November 24, 2024</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/ivd-contract-manufacturing-market</t>
+          <t>https://www.skyquestt.com/report/construction-adhesives-market</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SQMIG35H2317</t>
+          <t>SQMIG20B2047</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -839,19 +819,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>November 18, 2024</t>
+          <t>November 25, 2024</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/ventricular-assist-devices-market</t>
+          <t>https://www.skyquestt.com/report/fall-protection-market</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SQMIG35A2966</t>
+          <t>SQMIG20C2051</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -861,41 +841,37 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>November 20, 2024</t>
+          <t>November 23, 2024</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cementless-total-knee-arthroplasty-market</t>
+          <t>https://www.skyquestt.com/report/electric-submersible-pump-market</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SQMIG35A2965</t>
+          <t>SQMIG20D2145</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>November 22, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/green-technology-and-sustainability-market</t>
+          <t>https://www.skyquestt.com/report/electric-van-market</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SQMIG45B2034</t>
+          <t>SQMIG25C2128</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -905,19 +881,19 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>November 22, 2024</t>
+          <t>November 25, 2024</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/medical-specialty-bags-market</t>
+          <t>https://www.skyquestt.com/report/farm-equipment-rental-market</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SQMIG35B2219</t>
+          <t>SQMIG20H2041</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -927,63 +903,55 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>November 21, 2024</t>
+          <t>November 25, 2024</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/ultrasound-equipment-market</t>
+          <t>https://www.skyquestt.com/report/unsaturated-polyester-resins-market</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SQMIG35A2969</t>
+          <t>SQMIG15E2408</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>November 20, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/infection-surveillance-solutions-market</t>
+          <t>https://www.skyquestt.com/report/silicon-metal-market</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SQMIG35G2304</t>
+          <t>SQMIG15J2056</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>November 19, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/legionella-testing-market</t>
+          <t>https://www.skyquestt.com/report/soil-conditioners-market</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SQMIG35D2264</t>
+          <t>SQMIG30H2120</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -993,41 +961,37 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>November 22, 2024</t>
+          <t>November 26, 2024</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/medical-foods-market</t>
+          <t>https://www.skyquestt.com/report/aluminum-composite-panels-market</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SQMIG35I2345</t>
+          <t>SQMIG15F2083</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>November 18, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/drug-delivery-devices-market</t>
+          <t>https://www.skyquestt.com/report/smart-antenna-market</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SQMIG35A2918</t>
+          <t>SQSG25E2011</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1037,19 +1001,19 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>November 20, 2024</t>
+          <t>November 25, 2024</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/nutrigenomics-market</t>
+          <t>https://www.skyquestt.com/report/agricultural-adjuvants-market</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SQMIG35H2266</t>
+          <t>SQMIG15C2038</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1059,63 +1023,55 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>November 17, 2024</t>
+          <t>November 28, 2024</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/automotive-wrap-films-market</t>
+          <t>https://www.skyquestt.com/report/diesel-power-engine-market</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SQMIG25A2323</t>
+          <t>SQMIG20I2284</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>November 19, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/evtol-aircraft-market</t>
+          <t>https://www.skyquestt.com/report/herbicides-market</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SQMIG20A2275</t>
+          <t>SQMIG15A2110</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>November 18, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/isostatic-pressing-market</t>
+          <t>https://www.skyquestt.com/report/hydrogen-energy-storage-market</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SQMIG20A2266</t>
+          <t>SQMIG10E2022</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1125,41 +1081,37 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>November 20, 2024</t>
+          <t>November 27, 2024</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/air-freshener-market</t>
+          <t>https://www.skyquestt.com/report/silicone-market</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SQMIG25Z2015</t>
+          <t>SQMIG15E2405</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>November 21, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/satellite-internet-market</t>
+          <t>https://www.skyquestt.com/report/nitrogenous-fertilizer-market</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SQMIG45B2158</t>
+          <t>SQMIG15A2101</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1169,19 +1121,19 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>November 18, 2024</t>
+          <t>November 24, 2024</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/thermoplastic-composites-market</t>
+          <t>https://www.skyquestt.com/report/water-soluble-fertilizer-market</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SQMIG15E2548</t>
+          <t>SQMIG30H2051</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1191,19 +1143,19 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>November 16, 2024</t>
+          <t>November 26, 2024</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/nitrocellulose-market</t>
+          <t>https://www.skyquestt.com/report/water-soluble-fertilizer-market</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SQMIG15E2549</t>
+          <t>SQMIG30H2051</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1213,19 +1165,19 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>November 17, 2024</t>
+          <t>April 26, 2024</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/web-analytics-market</t>
+          <t>https://www.skyquestt.com/report/battery-additives-market</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SQMIG45B2157</t>
+          <t>SQMIG15A2320</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1235,41 +1187,37 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>November 19, 2024</t>
+          <t>November 28, 2024</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/esterquats-market</t>
+          <t>https://www.skyquestt.com/report/antimicrobial-packaging-market</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SQSG15A2024</t>
+          <t>SQMIG15G2068</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>November 21, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/low-speed-electric-vehicle-market</t>
+          <t>https://www.skyquestt.com/report/acrylic-resin-market</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SQMIG10A2046</t>
+          <t>SQMIG15A2350</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1279,41 +1227,37 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>November 20, 2024</t>
+          <t>November 23, 2024</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/commercial-telematics-market</t>
+          <t>https://www.skyquestt.com/report/retort-packaging-market</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SQMIG45E2269</t>
+          <t>SQMIG15G2069</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>November 22, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/smart-waste-management-market</t>
+          <t>https://www.skyquestt.com/report/smart-energy-market</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SQMIG45E2268</t>
+          <t>SQMIG55F2028</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1323,41 +1267,37 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>November 17, 2024</t>
+          <t>November 28, 2024</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/pay-tv-market</t>
+          <t>https://www.skyquestt.com/report/fuel-cell-vehicle-market</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SQMIG45I2219</t>
+          <t>SQMIG55F2046</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>November 18, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/smart-fleet-management-market</t>
+          <t>https://www.skyquestt.com/report/screw-compressor-market</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SQMIG45E2267</t>
+          <t>SQMIG15F2164</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1367,19 +1307,19 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>November 19, 2024</t>
+          <t>November 24, 2024</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/smart-parking-market</t>
+          <t>https://www.skyquestt.com/report/geothermal-power-market</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SQMIG45M2018</t>
+          <t>SQMIG55F2030</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1389,19 +1329,19 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>November 20, 2024</t>
+          <t>November 27, 2024</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/chatbot-market</t>
+          <t>https://www.skyquestt.com/report/organic-pet-food-market</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SQMIG45A2039</t>
+          <t>SQMIG30I2385</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1411,19 +1351,19 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>November 18, 2024</t>
+          <t>November 27, 2024</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/car-rental-market</t>
+          <t>https://www.skyquestt.com/report/smart-grid-sensors-market</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SQMIG25AG2009</t>
+          <t>SQMIG15A2432</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1433,19 +1373,19 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>November 19, 2024</t>
+          <t>November 25, 2024</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/biochar-market</t>
+          <t>https://www.skyquestt.com/report/bulletproof-glass-market</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SQMIG15C2016</t>
+          <t>SQMIG15G2090</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1455,19 +1395,19 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>November 20, 2024</t>
+          <t>November 26, 2024</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/customer-experience-management-market</t>
+          <t>https://www.skyquestt.com/report/glass-fiber-market</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SQMIG20Q2006</t>
+          <t>SQMIG15A2427</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1477,41 +1417,37 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>November 22, 2024</t>
+          <t>November 28, 2024</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/activated-carbon-market</t>
+          <t>https://www.skyquestt.com/report/security-robots-market</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SQMIG15B2101</t>
+          <t>SQMIG45J2202</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>November 17, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cannabidiol-market</t>
+          <t>https://www.skyquestt.com/report/water-recycle-and-reuse-market</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SQMIG35I2339</t>
+          <t>SQMIG55D2021</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1524,12 +1460,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/carbon-credits-market</t>
+          <t>https://www.skyquestt.com/report/transfection-technologies-market</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SQMIG25E2111</t>
+          <t>SQMIG15A2450</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1539,19 +1475,19 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>November 21, 2024</t>
+          <t>November 28, 2024</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/heat-pump-market</t>
+          <t>https://www.skyquestt.com/report/offshore-wind-power-market</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SQMIG10B2075</t>
+          <t>SQMIG55E2047</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1561,19 +1497,19 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>November 19, 2024</t>
+          <t>November 27, 2024</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/kombucha-market</t>
+          <t>https://www.skyquestt.com/report/food-logistics-market</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SQMIG30F2020</t>
+          <t>SQMIG30B2043</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1583,19 +1519,19 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>November 18, 2024</t>
+          <t>November 26, 2024</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/identity-verification-market</t>
+          <t>https://www.skyquestt.com/report/biomass-power-generation-market</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SQMIG45B2134</t>
+          <t>SQMIG55F2054</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1605,19 +1541,19 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>November 20, 2024</t>
+          <t>November 24, 2024</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cold-chain-market</t>
+          <t>https://www.skyquestt.com/report/consumer-robotics-market</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SQMIG25C2104</t>
+          <t>SQMIG25E2123</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1627,19 +1563,19 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>November 21, 2024</t>
+          <t>November 27, 2024</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/e-bike-market</t>
+          <t>https://www.skyquestt.com/report/grow-light-market</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SQMIG25C2047</t>
+          <t>SQMIG55A2048</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1649,19 +1585,19 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>November 16, 2024</t>
+          <t>November 28, 2024</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/smart-speaker-market</t>
+          <t>https://www.skyquestt.com/report/nuclear-decommissioning-market</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SQMIG25E2084</t>
+          <t>SQMIG20N2026</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1671,19 +1607,19 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>November 22, 2024</t>
+          <t>November 24, 2024</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/enzymes-market</t>
+          <t>https://www.skyquestt.com/report/proximity-sensors-market</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SQSG30I2034</t>
+          <t>SQMIG25A2134</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1693,19 +1629,19 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>November 17, 2024</t>
+          <t>November 25, 2024</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/aquaculture-market</t>
+          <t>https://www.skyquestt.com/report/e-discovery-software-market</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SQMIG30H2089</t>
+          <t>SQSG45E2033</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1715,19 +1651,19 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>November 18, 2024</t>
+          <t>November 27, 2024</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/industrial-gases-market</t>
+          <t>https://www.skyquestt.com/report/shore-power-market</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SQMIG10B2039</t>
+          <t>SQMIG20E2076</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1737,19 +1673,19 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>November 17, 2024</t>
+          <t>November 26, 2024</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/lithium-ion-battery-market</t>
+          <t>https://www.skyquestt.com/report/data-annotation-tools-market</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SQMIG20D2153</t>
+          <t>SQMIG45C2064</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1759,41 +1695,37 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>November 20, 2024</t>
+          <t>November 28, 2024</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/loyalty-management-market</t>
+          <t>https://www.skyquestt.com/report/robotic-air-purifier-market</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SQMIG45B2159</t>
+          <t>SQMIG25A2324</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>November 19, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/bioethanol-market</t>
+          <t>https://www.skyquestt.com/report/artificial-intelligence-based-personalization-market</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SQMIG10D2044</t>
+          <t>SQMIG45A2301</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1803,19 +1735,19 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>November 20, 2024</t>
+          <t>November 24, 2024</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/extended-reality-market</t>
+          <t>https://www.skyquestt.com/report/automotive-digital-key-market</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SQMIG45E2161</t>
+          <t>SQMIG25A2314</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1825,19 +1757,19 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>November 18, 2024</t>
+          <t>November 23, 2024</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/portable-generator-market</t>
+          <t>https://www.skyquestt.com/report/knowledge-process-outsourcing-market</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SQMIG20E2066</t>
+          <t>SQMIG45C2060</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1847,19 +1779,19 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>November 19, 2024</t>
+          <t>November 25, 2024</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/cosmetic-packaging-market</t>
+          <t>https://www.skyquestt.com/report/product-lifecycle-management-market</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SQMIG30L2113</t>
+          <t>SQMIG45E2204</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1869,19 +1801,19 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>November 19, 2024</t>
+          <t>November 24, 2024</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/gas-turbine-market</t>
+          <t>https://www.skyquestt.com/report/autonomous-mobile-robot-market</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SQMIG55B2003</t>
+          <t>SQMIG45A2375</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1891,19 +1823,19 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>November 18, 2024</t>
+          <t>November 26, 2024</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/industrial-filtration-market</t>
+          <t>https://www.skyquestt.com/report/motorcycle-sensors-market</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SQMIG20I2154</t>
+          <t>SQMIG25A2312</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1913,19 +1845,19 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>November 17, 2024</t>
+          <t>November 27, 2024</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/dimethyl-ether-market</t>
+          <t>https://www.skyquestt.com/report/food-processing-equipment-market</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SQMIG15E2344</t>
+          <t>SQMIG20E2054</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1935,19 +1867,19 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>November 18, 2024</t>
+          <t>November 28, 2024</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/polycarbonate-market</t>
+          <t>https://www.skyquestt.com/report/automotive-catalyst-market</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SQMIG15E2343</t>
+          <t>SQMIG25A2141</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1957,19 +1889,19 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>November 19, 2024</t>
+          <t>November 24, 2024</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/recreational-vehicle-market</t>
+          <t>https://www.skyquestt.com/report/large-format-printers-market</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SQMIG20I2209</t>
+          <t>SQMIG20D2086</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1979,19 +1911,19 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>November 20, 2024</t>
+          <t>November 25, 2024</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/3d-printer-market</t>
+          <t>https://www.skyquestt.com/report/railway-wiring-harness-market</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SQMIG45J2073</t>
+          <t>SQMIG20U2014</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2001,19 +1933,19 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>November 22, 2024</t>
+          <t>November 23, 2024</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/epoxy-resin-market</t>
+          <t>https://www.skyquestt.com/report/utility-battery-market</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SQSG15A2048</t>
+          <t>SQMIG20D2265</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2023,85 +1955,73 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>November 20, 2024</t>
+          <t>November 27, 2024</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/semiconductor-production-equipment-market</t>
+          <t>https://www.skyquestt.com/report/friction-stir-welding-equipment-market</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SQMIG45N2084</t>
+          <t>SQMIG20E2082</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>November 21, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/semiconductor-production-equipment-market</t>
+          <t>https://www.skyquestt.com/report/power-metering-market</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SQMIG45N2084</t>
+          <t>SQMIG20D2266</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>July 27, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/masterbatch-market</t>
+          <t>https://www.skyquestt.com/report/municipal-solid-waste-management-market</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>SQMIG15E2169</t>
+          <t>SQMIG20L2036</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>November 21, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/crop-protection-chemicals-market</t>
+          <t>https://www.skyquestt.com/report/delivery-drones-market</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SQMIG15C2035</t>
+          <t>SQMIG20R2015</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2111,19 +2031,19 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>November 17, 2024</t>
+          <t>November 26, 2024</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/industrial-hemp-market</t>
+          <t>https://www.skyquestt.com/report/pharmaceutical-logistics-market</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SQMIG15P2005</t>
+          <t>SQMIG35I2336</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2133,63 +2053,55 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>November 16, 2024</t>
+          <t>November 25, 2024</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/asset-performance-management-market</t>
+          <t>https://www.skyquestt.com/report/smart-mirror-market</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SQMIG40J2004</t>
+          <t>SQMIG45I2077</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>November 19, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/payment-processing-solutions-market</t>
+          <t>https://www.skyquestt.com/report/ambient-light-sensor-market</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SQMIG40J2005</t>
+          <t>SQMIG45J2201</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>November 20, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/flow-battery-market</t>
+          <t>https://www.skyquestt.com/report/mining-truck-market</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SQMIG55F2057</t>
+          <t>SQMIG20G2055</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2199,41 +2111,37 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>November 18, 2024</t>
+          <t>November 24, 2024</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/commercial-vehicle-market</t>
+          <t>https://www.skyquestt.com/report/high-speed-camera-market</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>SQMIG20V2002</t>
+          <t>SQMIG45A2221</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>November 22, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/high-performance-computing-market</t>
+          <t>https://www.skyquestt.com/report/industrial-sewing-machines-market</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>SQMIG45B2029</t>
+          <t>SQMIG20I2275</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2243,19 +2151,19 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>November 21, 2024</t>
+          <t>November 28, 2024</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/forklift-market</t>
+          <t>https://www.skyquestt.com/report/3d-scanning-market</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>SQMIG20G2021</t>
+          <t>SQMIG45I2079</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2265,19 +2173,19 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>November 17, 2024</t>
+          <t>November 27, 2024</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/digital-map-market</t>
+          <t>https://www.skyquestt.com/report/fusion-splicer-market</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SQMIG45B2136</t>
+          <t>SQMIG45A2254</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2287,19 +2195,19 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>November 18, 2024</t>
+          <t>November 23, 2024</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/space-tourism-market</t>
+          <t>https://www.skyquestt.com/report/battery-energy-storage-market</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SQMIG20S2010</t>
+          <t>SQMIG25A2326</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2309,41 +2217,37 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>November 20, 2024</t>
+          <t>November 26, 2024</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/blockchain-gaming-market</t>
+          <t>https://www.skyquestt.com/report/hdmi-cable-market</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SQMIG45E2251</t>
+          <t>SQMIG45A2255</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>November 19, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/sulfuric-acid-market</t>
+          <t>https://www.skyquestt.com/report/hybrid-fiber-coaxial-market</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SQMIG15A2309</t>
+          <t>SQMIG45A2253</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2353,63 +2257,55 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>November 18, 2024</t>
+          <t>November 24, 2024</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/insect-protein-market</t>
+          <t>https://www.skyquestt.com/report/automotive-pumps-market</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SQSG30I2040</t>
+          <t>SQMIG25A2218</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>November 19, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/catalyst-market</t>
+          <t>https://www.skyquestt.com/report/cloud-encryption-software-market</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SQMIG15E2342</t>
+          <t>SQMIG45A2313</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>November 20, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/clinical-nutrition-market</t>
+          <t>https://www.skyquestt.com/report/automotive-pressure-sensors-market</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SQMIG30A2012</t>
+          <t>SQMIG25A2271</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2419,63 +2315,55 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>November 21, 2024</t>
+          <t>November 27, 2024</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/hydrogen-storage-market</t>
+          <t>https://www.skyquestt.com/report/hydraulic-dosing-pump-market</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SQMIG55B2005</t>
+          <t>SQSG20I2019</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>November 16, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/high-purity-alumina-market</t>
+          <t>https://www.skyquestt.com/report/hydraulic-equipment-market</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SQMIG15E2303</t>
+          <t>SQMIG20I2193</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>November 17, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/commercial-drone-market</t>
+          <t>https://www.skyquestt.com/report/aircraft-mro-market</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SQMIG20A2044</t>
+          <t>SQMIG20S2009</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2485,19 +2373,19 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>November 18, 2024</t>
+          <t>November 25, 2024</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/payment-gateway-market</t>
+          <t>https://www.skyquestt.com/report/heavy-construction-equipment-market</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SQSG45E2040</t>
+          <t>SQMIG20C2032</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2507,19 +2395,19 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>November 19, 2024</t>
+          <t>November 26, 2024</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/smart-warehousing-market</t>
+          <t>https://www.skyquestt.com/report/service-integration-and-management-market</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SQMIG45D2053</t>
+          <t>SQMIG45F2159</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2529,85 +2417,73 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>November 20, 2024</t>
+          <t>November 27, 2024</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/flow-meter-market</t>
+          <t>https://www.skyquestt.com/report/cloud-discovery-market</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SQMIG20D2184</t>
+          <t>SQMIG45D2101</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>November 17, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/air-compressor-market</t>
+          <t>https://www.skyquestt.com/report/automotive-solenoid-market</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SQSG20I2028</t>
+          <t>SQMIG25A2327</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>November 22, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/fog-computing-market</t>
+          <t>https://www.skyquestt.com/report/automotive-fuse-market</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>SQMIG45F2040</t>
+          <t>SQMIG25A2328</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>November 21, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/lab-automation-market</t>
+          <t>https://www.skyquestt.com/report/filling-equipment-market</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SQMIG20D2061</t>
+          <t>SQMIG20I2188</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2617,19 +2493,19 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>November 18, 2024</t>
+          <t>November 24, 2024</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/aircraft-engine-market</t>
+          <t>https://www.skyquestt.com/report/portable-air-purifier-market</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SQMIG20S2011</t>
+          <t>SQMIG20L2027</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2639,19 +2515,19 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>November 20, 2024</t>
+          <t>November 28, 2024</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/rehabilitation-robots-market</t>
+          <t>https://www.skyquestt.com/report/commercial-security-system-market</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SQMIG45A2373</t>
+          <t>SQMIG20O2010</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2661,19 +2537,19 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>November 19, 2024</t>
+          <t>November 25, 2024</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/plastic-processing-machinery-market</t>
+          <t>https://www.skyquestt.com/report/hazardous-waste-management-market</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>SQMIG20I2184</t>
+          <t>SQMIG20L2054</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2683,19 +2559,19 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>November 19, 2024</t>
+          <t>November 26, 2024</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/virtual-reality-in-gaming-market</t>
+          <t>https://www.skyquestt.com/report/fuel-cell-powertrain-market</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SQMIG45D2048</t>
+          <t>SQMIG10B2029</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2705,19 +2581,19 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>November 18, 2024</t>
+          <t>November 27, 2024</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/industrial-hose-market</t>
+          <t>https://www.skyquestt.com/report/busbar-trunking-system-market</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SQMIG20B2069</t>
+          <t>SQMIG55A2049</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2727,63 +2603,55 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>November 20, 2024</t>
+          <t>November 26, 2024</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/hyperspectral-imaging-market</t>
+          <t>https://www.skyquestt.com/report/phosphoric-acid-fuel-cell-market</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>SQMIG45J2128</t>
+          <t>SQMIG55F2044</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>November 18, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/smart-greenhouse-market</t>
+          <t>https://www.skyquestt.com/report/artichokes-market</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>SQMIG20H2008</t>
+          <t>SQSG30C2012</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>November 21, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/robotic-lawn-mower-market</t>
+          <t>https://www.skyquestt.com/report/smart-kitchen-appliances-market</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>SQSG20H2001</t>
+          <t>SQMIG25I2027</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2793,19 +2661,19 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>November 22, 2024</t>
+          <t>November 24, 2024</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/agricultural-surfactants-market</t>
+          <t>https://www.skyquestt.com/report/ultrasonic-cleaning-equipment-market</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>SQMIG15C2072</t>
+          <t>SQMIG20N2032</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2815,19 +2683,19 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>November 21, 2024</t>
+          <t>November 23, 2024</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/functional-water-market</t>
+          <t>https://www.skyquestt.com/report/industrial-brakes-market</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>SQMIG30F2036</t>
+          <t>SQMIG20I2281</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2837,19 +2705,19 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>November 18, 2024</t>
+          <t>November 24, 2024</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/polymer-foam-market</t>
+          <t>https://www.skyquestt.com/report/ruminant-feed-market</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>SQMIG15E2539</t>
+          <t>SQSG30C2018</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2859,85 +2727,73 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>November 20, 2024</t>
+          <t>November 28, 2024</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/electronic-chemicals-and-materials-market</t>
+          <t>https://www.skyquestt.com/report/micro-packaging-market</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SQMIG15E2339</t>
+          <t>SQMIG15G2066</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>November 19, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/infant-nutrition-market</t>
+          <t>https://www.skyquestt.com/report/artificial-turf-market</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>SQSG30I2042</t>
+          <t>SQMIG15F2105</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>November 19, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/secondary-battery-market</t>
+          <t>https://www.skyquestt.com/report/carnauba-wax-market</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>SQMIG20D2229</t>
+          <t>SQMIG15E2439</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>November 17, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/base-oil-market</t>
+          <t>https://www.skyquestt.com/report/ambient-lighting-market</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SQMIG55B2009</t>
+          <t>SQMIG25E2074</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2947,19 +2803,19 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>November 16, 2024</t>
+          <t>November 25, 2024</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/open-banking-market</t>
+          <t>https://www.skyquestt.com/report/agricultural-lubricants-market</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>SQMIG40A2004</t>
+          <t>SQMIG15C2014</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2969,85 +2825,73 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>November 17, 2024</t>
+          <t>November 26, 2024</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/essential-oils-market</t>
+          <t>https://www.skyquestt.com/report/fuel-dispenser-market</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SQMIG30L2140</t>
+          <t>SQMIG10B2018</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>November 18, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/battery-energy-storage-system-market</t>
+          <t>https://www.skyquestt.com/report/tobacco-packaging-market</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SQMIG55C2005</t>
+          <t>SQMIG30J2026</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>November 19, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/blue-hydrogen-market</t>
+          <t>https://www.skyquestt.com/report/subsea-manifolds-market</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SQMIG10D2019</t>
+          <t>SQMIG15F2106</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>November 20, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/organic-baby-food-market</t>
+          <t>https://www.skyquestt.com/report/egg-replacement-ingredients-market</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SQMIG30I2146</t>
+          <t>SQMIG30C2066</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3057,63 +2901,55 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>November 21, 2024</t>
+          <t>November 24, 2024</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/smart-bed-market</t>
+          <t>https://www.skyquestt.com/report/nanomaterials-market</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>SQMIG25F2064</t>
+          <t>SQMIG15B2044</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>November 18, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/release-liners-market</t>
+          <t>https://www.skyquestt.com/report/water-soluble-polymers-market</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>SQMIG15A2360</t>
+          <t>SQMIG15E2370</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>November 19, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/industrial-wax-market</t>
+          <t>https://www.skyquestt.com/report/Power-Bank-Market</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>SQMIG15A2410</t>
+          <t>SQMIG25E2040</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3123,19 +2959,19 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>November 21, 2024</t>
+          <t>November 23, 2024</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/pet-wearable-market</t>
+          <t>https://www.skyquestt.com/report/nitrous-oxide-market</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>SQMIG25S2023</t>
+          <t>SQMIG15A2304</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3145,19 +2981,19 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>November 17, 2024</t>
+          <t>November 24, 2024</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/synthetic-gypsum-market</t>
+          <t>https://www.skyquestt.com/report/3d-printing-construction-market</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>SQMIG15F2116</t>
+          <t>SQMIG15F2108</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3167,41 +3003,37 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>November 20, 2024</t>
+          <t>November 25, 2024</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/medical-polymers-market</t>
+          <t>https://www.skyquestt.com/report/lignin-market</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>SQMIG15A2347</t>
+          <t>SQMIG15C2039</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>November 18, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/automotive-ethernet-market</t>
+          <t>https://www.skyquestt.com/report/thermoplastic-elastomer-market</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>SQMIG25E2113</t>
+          <t>SQMIG15E2162</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3211,19 +3043,19 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>November 19, 2024</t>
+          <t>November 28, 2024</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/landfill-gas-market</t>
+          <t>https://www.skyquestt.com/report/piezoelectric-materials-market</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>SQMIG10C2020</t>
+          <t>SQMIG15A2119</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3233,63 +3065,55 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>November 22, 2024</t>
+          <t>November 25, 2024</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/torque-vectoring-market</t>
+          <t>https://www.skyquestt.com/report/legumes-market</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>SQMIG25E2112</t>
+          <t>SQMIG30B2021</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>November 20, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/lithium-ion-battery-recycling-market</t>
+          <t>https://www.skyquestt.com/report/industrial-fasteners-market</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>SQMIG15A2413</t>
+          <t>SQMIG15B2042</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>November 16, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/heat-recovery-steam-generator-market</t>
+          <t>https://www.skyquestt.com/report/microinsurance-market</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>SQMIG20E2060</t>
+          <t>SQMIG40N2004</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3299,41 +3123,37 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>November 19, 2024</t>
+          <t>November 27, 2024</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/wire-harness-market</t>
+          <t>https://www.skyquestt.com/report/fluorspar-market</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>SQMIG20D2163</t>
+          <t>SQMIG15J2027</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>November 19, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/alkaline-battery-market</t>
+          <t>https://www.skyquestt.com/report/green-technology-and-sustainability-market</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>SQSG20D2008</t>
+          <t>SQMIG45B2034</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3343,19 +3163,19 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>November 18, 2024</t>
+          <t>November 22, 2024</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/image-sensor-market</t>
+          <t>https://www.skyquestt.com/report/spatial-light-modulator-market</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>SQMIG45J2154</t>
+          <t>SQMIG55A2029</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3365,63 +3185,55 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>November 17, 2024</t>
+          <t>November 28, 2024</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/battery-electrolyte-market</t>
+          <t>https://www.skyquestt.com/report/resorcinol-market</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>SQMIG20D2224</t>
+          <t>SQMIG15E2265</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>November 20, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/voice-assistant-application-market</t>
+          <t>https://www.skyquestt.com/report/feed-acidifiers-market</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>SQMIG45E2270</t>
+          <t>SQMIG15C2049</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>November 18, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/commercial-hvac-market</t>
+          <t>https://www.skyquestt.com/report/bio-based-propylene-glycol-market</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>SQMIG20D2234</t>
+          <t>SQMIG15A2171</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3431,19 +3243,19 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>November 22, 2024</t>
+          <t>November 25, 2024</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/drone-payload-market</t>
+          <t>https://www.skyquestt.com/report/ceramic-membrane-market</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>SQMIG20D2258</t>
+          <t>SQMIG15E2409</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3453,19 +3265,19 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>November 17, 2024</t>
+          <t>November 26, 2024</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/secure-logistics-market</t>
+          <t>https://www.skyquestt.com/report/water-softening-systems-market</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>SQMIG20R2016</t>
+          <t>SQMIG55D2009</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3475,19 +3287,19 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>November 20, 2024</t>
+          <t>November 24, 2024</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/agriculture-analytics-market</t>
+          <t>https://www.skyquestt.com/report/flexible-glass-market</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>SQMIG45F2070</t>
+          <t>SQMIG15G2061</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3497,19 +3309,19 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>November 19, 2024</t>
+          <t>November 24, 2024</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/busbar-market</t>
+          <t>https://www.skyquestt.com/report/green-tires-market</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>SQMIG20D2189</t>
+          <t>SQMIG25B2013</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3519,19 +3331,19 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>November 22, 2024</t>
+          <t>November 28, 2024</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/automotive-airbag-market</t>
+          <t>https://www.skyquestt.com/report/glyoxylic-acid-market</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>SQSG25A2013</t>
+          <t>SQMIG30L2223</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3541,19 +3353,19 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>November 17, 2024</t>
+          <t>November 26, 2024</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/alcoholic-beverages-market</t>
+          <t>https://www.skyquestt.com/report/building-thermal-insulation-market</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>SQMIG30C2129</t>
+          <t>SQMIG15F2118</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3563,41 +3375,37 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>November 21, 2024</t>
+          <t>November 24, 2024</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/energy-management-system-market</t>
+          <t>https://www.skyquestt.com/report/advanced-polymer-composites-market</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>SQMIG45F2071</t>
+          <t>SQMIG15B2105</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>November 20, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/polymer-modified-bitumen-market</t>
+          <t>https://www.skyquestt.com/report/arachidonic-acid-market</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>SQMIG20C2068</t>
+          <t>SQMIG15A2209</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -3607,41 +3415,37 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>November 19, 2024</t>
+          <t>November 26, 2024</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/hydraulic-fracturing-market</t>
+          <t>https://www.skyquestt.com/report/carmine-market</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>SQMIG20I2216</t>
+          <t>SQMIG30C2135</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>November 18, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/vegan-cosmetics-market</t>
+          <t>https://www.skyquestt.com/report/cosmetic-products-market</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SQMIG30L2195</t>
+          <t>SQMIG30L2224</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -3651,41 +3455,37 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>November 16, 2024</t>
+          <t>November 27, 2024</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/polyurethane-foam-market</t>
+          <t>https://www.skyquestt.com/report/offshore-wind-turbine-market</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SQMIG15B2118</t>
+          <t>SQMIG10B2084</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>November 18, 2024</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/smart-water-management-market</t>
+          <t>https://www.skyquestt.com/report/automotive-wheel-market</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>SQMIG55D2023</t>
+          <t>SQMIG25B2015</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -3695,19 +3495,19 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>November 17, 2024</t>
+          <t>November 24, 2024</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/ceramics-market</t>
+          <t>https://www.skyquestt.com/report/emission-control-catalysts-market</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>SQMIG15F2099</t>
+          <t>SQMIG15A2336</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -3717,19 +3517,19 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>November 19, 2024</t>
+          <t>November 28, 2024</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/train-battery-market</t>
+          <t>https://www.skyquestt.com/report/flame-retardants-market</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>SQMIG20E2086</t>
+          <t>SQMIG15A2338</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3739,19 +3539,19 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>November 21, 2024</t>
+          <t>November 27, 2024</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://www.skyquestt.com/report/thermoelectric-generator-market</t>
+          <t>https://www.skyquestt.com/report/flock-adhesives-market</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>SQMIG20D2264</t>
+          <t>SQMIG15E2294</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3761,9 +3561,3055 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>November 20, 2024</t>
-        </is>
-      </c>
+          <t>November 26, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/coal-tar-pitch-market</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>SQMIG10G2026</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>November 28, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/high-performance-ceramic-coatings-market</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>SQMIG15B2102</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>November 23, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/adhesion-barrier-market</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>SQMIG15B2076</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/agriculture-equipment-market</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>SQSG20H2003</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>November 25, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/medical-plastics-market</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>SQMIG15E2132</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>November 27, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/specialty-food-ingredients-market</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>SQMIG30H2082</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/geosynthetics-market</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>SQMIG15E2173</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/fiberglass-market</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>SQMIG15E2167</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/conductive-inks-market</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>SQMIG20K2006</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-chromium-market</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>SQMIG15A2299</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/synthetic-rubber-market</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>SQMIG15A2103</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/biometrics-market</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>SQMIG45I2142</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>November 28, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/food-waste-management-market</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>SQMIG20L2016</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>November 24, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/industrial-ethernet-market</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>SQMIG25Z2013</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>November 25, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/solar-pv-mounting-systems-market</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>SQMIG20E2044</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>November 25, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/retail-ready-packaging-market</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>SQMIG25Y2004</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>November 23, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/voice-biometrics-market</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>SQMIG50C2031</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>November 26, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/web-content-management-market</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>SQMIG25E2109</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>November 26, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/critical-infrastructure-protection-market</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>SQMIG40J2006</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>November 27, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/barcode-label-printer-market</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>SQMIG25E2115</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>November 24, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/biomass-pellets-market</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>SQMIG10G2035</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>November 26, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/construction-fabrics-market</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>SQMIG15F2173</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/elastomeric-coatings-market</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>SQMIG15E2469</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>November 25, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/propylene-carbonate-market</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>SQMIG15E2515</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>November 27, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/microbial-enhanced-oil-recovery-market</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>SQMIG10C2028</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>November 24, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/cnc-router-market</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>SQMIG15F2159</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>November 25, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-lidar-sensors-market</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>SQMIG10A2030</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>November 28, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/directional-drilling-market</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>SQMIG15F2167</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>November 24, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/cast-acrylic-sheets-market</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>SQMIG15G2086</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/oil-and-gas-accumulator-market</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>SQMIG15F2146</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>November 28, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/slickline-services-market</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>SQMIG15A2414</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>November 26, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/slickline-services-market</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>SQMIG15A2414</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>November 25, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/flare-gas-recovery-system-market</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>SQMIG15A2434</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>November 27, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/heat-transfer-fluid-market</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>SQMIG15E2503</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/semiconductor-capital-equipment-market</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>SQMIG15A2433</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>November 23, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/tire-pressure-monitoring-system-market</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>SQMIG25B2024</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>November 23, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/gas-generator-market</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>SQMIG10C2031</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>November 24, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/advanced-functional-materials-market</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>SQMIG15A2420</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/ground-engaging-tools-market</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>SQMIG55A2044</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>November 25, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/metallurgical-coal-market</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>SQMIG10A2032</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>November 24, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/articulated-robots-market</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>SQMIG55A2051</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/wireless-gas-detection-market</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>SQMIG10B2105</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>November 26, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/volatile-organic-compound-gas-sensor-market</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>SQMIG10A2047</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>November 24, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/robotic-paint-booth-market</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>SQMIG10A2048</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>November 28, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/solar-battery-market</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>SQMIG55A2050</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/hospitality-robots-market</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>SQMIG25S2055</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/gear-oil-market</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>SQMIG15A2438</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/sapphire-glass-market</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>SQMIG15M2015</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>November 28, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/archery-equipment-market</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>SQMIG25J2076</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/floor-adhesive-market</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>SQMIG15E2535</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/liquid-polybutadiene-market</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>SQMIG15E2536</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/middle-office-outsourcing-market</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>SQMIG60D2001</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>November 28, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/liquid-detergent-market</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>SQMIG30K2054</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>November 26, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/software-defined-data-center-market</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>SQMIG45E2197</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/speech-and-voice-recognition-market</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>SQMIG45J2063</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/enterprise-architecture-tools-market</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>SQMIG45B2066</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>November 27, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/radar-sensor-market</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>SQMIG25A2054</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/air-brake-system-market</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>SQMIG25A2163</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>November 26, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/battery-swapping-market</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>SQMIG25A2329</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>November 28, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/progressive-cavity-pump-market</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>SQMIG20A2276</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/vacuum-coating-equipment-market</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>SQMIG20I2181</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/wearable-camera-market</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>SQMIG20D2069</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/parental-control-software-market</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>SQMIG50J2007</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/robotic-flexible-washer-market</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>SQMIG45A2376</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/robotic-wheelchairs-market</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>SQMIG25A2330</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/commercial-refrigeration-market</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>SQMIG20N2020</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>November 26, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-front-end-module-market</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>SQMIG25A2195</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>November 27, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/bifacial-solar-market</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>SQMIG45O2041</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>November 28, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-data-logger-market</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>SQMIG25A2267</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>November 23, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-drive-shaft-market</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>SQMIG25A2268</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-supercharger-market</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>SQMIG25A2270</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/adaptive-robotics-market</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>SQMIG45A2257</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>November 23, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/gas-masks-market</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>SQMIG20N2021</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-shielding-market</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>SQSG25AG2005</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/digital-shipyard-market</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>SQMIG20Y2006</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>November 28, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/military-sensors-market</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>SQMIG25AG2008</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/uav-flight-training-and-simulation-market</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>SQMIG45E2271</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/radiation-dose-management-market</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>SQMIG45A2277</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-intelligent-lighting-system-market</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>SQMIG25A2331</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/position-sensor-market</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>SQSG45I2036</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>November 26, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-smart-display-market</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>SQMIG25A2091</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>November 25, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/micro-mobility-market</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>SQMIG25A2063</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>November 27, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/string-inverter-market</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>SQMIG20E2043</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/payment-security-market</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>SQMIG20I2192</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>November 26, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/workplace-safety-market</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>SQMIG20P2008</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>November 24, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/scooter-sharing-market</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>SQMIG20V2010</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-ignition-system-market</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>SQMIG20D2210</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>November 28, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/okr-software-market</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>SQMIG45A2054</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/dynamic-positioning-system-market</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>SQMIG20A2042</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>November 26, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/educational-robot-market</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>SQMIG25A2332</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>November 28, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-fuel-tank-market</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>SQMIG25A2161</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/Automotive-knock-sensor-market</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>SQMIG45O2048</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/metallic-stearate-market</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>SQMIG15F2064</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/cloud-enterprise-application-software-market</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>SQMIG45A2319</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>November 25, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/robo-advisory-market</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>SQMIG45E2136</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/waste-heat-recovery-system-market</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>SQMIG20I2106</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>November 28, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/integrated-marine-automation-system-market</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>SQMIG20T2017</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/marine-engine-market</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>SQMIG25A2159</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/3d-printing-in-healthcare-market</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>SQMIG20C2025</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/industrial-3d-printing-market</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>SQMIG20I2253</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>November 28, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/government-cloud-market</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>SQMIG45D2102</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/enterprise-information-archiving-market</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>SQMIG45A2348</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/small-caliber-ammunition-market</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>SQSG20A2021</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/pure-play-software-testing-services-market</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>SQSG45B2020</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>November 28, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/drone-software-market</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>SQSG45E2010</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/process-mining-software-market</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>SQMIG45F2127</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>November 27, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/waterjet-cutting-machine-market</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>SQMIG20I2283</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/paralleling-switchgear-market</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>SQMIG20E2083</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/transformer-monitoring-system-market</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>SQMIG45J2182</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>November 28, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/earthing-equipment-market</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>SQMIG20E2087</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/low-voltage-switchgear-market</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>SQMIG20E2089</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>November 23, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-3d-printing-market</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>SQMIG45E2205</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>November 24, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/fertility-test-market</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>SQMIG45A2234</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/aircraft-communication-system-market</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>SQMIG20A2206</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>November 25, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/traffic-sensor-market</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>SQMIG45J2200</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-intercooler-market</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>SQMIG25A2274</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>November 24, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/broadcasting-equipment-market</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>SQMIG45H2059</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>November 25, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/tunable-laser-market</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>SQMIG45J2224</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-garage-equipment-market</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>SQMIG25A2284</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>November 26, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/poultry-feed-market</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>SQSG30C2017</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/commercial-seaweed-market</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>SQMIG30H2145</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/automotive-battery-market</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>SQMIG25A2333</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>November 23, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/advanced-composites-market</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>SQMIG15B2033</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>November 27, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/metal-recycling-market</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>SQMIG15J2068</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/collagen-and-gelatin-market</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>SQMIG15A2091</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>November 28, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/intumescent-coatings-market</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>SQMIG15A2115</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/ethane-market</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>SQMIG15E2166</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>November 25, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/super-absorbent-polymers-market</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>SQMIG15E2130</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/soy-protein-ingredients-market</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>SQMIG30C2095</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>November 27, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/new-energy-vehicle-taxi-market</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>SQMIG25E2114</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/acetic-anhydride-market</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>SQMIG15A2425</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/stick-packaging-market</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>SQMIG15H2061</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/rfid-printer-market</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>SQMIG25E2108</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/organic-pesticides-market</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>SQMIG15A2370</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/potassium-formate-market</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>SQMIG15A2409</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/water-softeners-market</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>SQMIG15E2514</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/boiler-control-market</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>SQMIG15A2415</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/diisononyl-phthalate-market</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>SQMIG15E2480</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/polycarbonate-sheets-market</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>SQMIG15G2087</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>November 27, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/ethylene-dichloride-market</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>SQMIG15A2411</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>November 25, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/superconducting-wire-market</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>SQMIG10A2041</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/radio-access-network-market</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>SQMIG45H2040</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/oil-condition-monitoring-market</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>SQMIG10B2091</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/ground-support-equipment-market</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>SQMIG20A2215</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>November 27, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/ammonium-carbonate-market</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>SQMIG15A2406</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/temporary-power-market</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>SQMIG55E2041</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/inventory-tags-market</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>SQMIG15Q2012</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/food-robotics-market</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>SQMIG30C2155</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/antiscalants-scale-inhibitors-market</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>SQMIG15E2506</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>November 25, 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/lactoferrin-market</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>SQMIG30I2351</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/wearable-medical-devices-market</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>SQMIG35A2674</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/cannabidiol-market</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>SQMIG35I2339</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>https://www.skyquestt.com/report/mobile-robots-market</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>SQMIG25A2296</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
